--- a/Cahier des charges/プロジェクト作業.xlsx
+++ b/Cahier des charges/プロジェクト作業.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\MyEnv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236BE9AE-AA2D-41CA-94FB-4C6D2EF0FA68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DA5515-3082-42D3-ACF2-6B4588979FC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="対応中" sheetId="1" r:id="rId1"/>
-    <sheet name="Schema BLACKBOX" sheetId="4" r:id="rId2"/>
-    <sheet name="対応済" sheetId="2" r:id="rId3"/>
+    <sheet name="Truc a faire demain" sheetId="5" r:id="rId2"/>
+    <sheet name="Schema BLACKBOX" sheetId="4" r:id="rId3"/>
+    <sheet name="対応済" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">対応中!$C$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">対応中!$C$1:$C$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="258">
   <si>
     <t>No.</t>
   </si>
@@ -68,9 +70,6 @@
   </si>
   <si>
     <t>開発</t>
-  </si>
-  <si>
-    <t>高</t>
   </si>
   <si>
     <t>all.php</t>
@@ -81,34 +80,13 @@
 Relire le system de gestion htaccess</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
-  <si>
-    <t>Faire en sorte que quelque soit l'origine de L'erreur, la bonne ligne s'affiche</t>
-  </si>
-  <si>
-    <t>Si provient de unhandler faire -2 et pas -3</t>
-  </si>
-  <si>
     <t>テスト</t>
   </si>
   <si>
-    <t>低</t>
-  </si>
-  <si>
-    <t>Tester SｑｌHelper</t>
-  </si>
-  <si>
     <t>SQLHelper</t>
   </si>
   <si>
     <t>Creer un fichier tester de SqlHelper</t>
-  </si>
-  <si>
-    <t>5h</t>
   </si>
   <si>
     <t>ajouter le system mysqli</t>
@@ -176,56 +154,13 @@
     <t>node.js</t>
   </si>
   <si>
-    <t>新</t>
-  </si>
-  <si>
     <t>中</t>
   </si>
   <si>
-    <t>•✘ Voir le cours avancer de Express et node js</t>
-  </si>
-  <si>
     <t>―</t>
   </si>
   <si>
-    <t>Creer un chat node js live (qui a la classe)</t>
-  </si>
-  <si>
-    <t>Faire un programe qui genere mes models</t>
-  </si>
-  <si>
-    <t>Lister toutes les fonctions qu'il faut generer_x000D_
-Creer (cette fois en utilisant ES6 et Babel) une class generatrice de node.js model._x000D_
-Tester les fonctions en vrai (Mais les faire 1 par 1 !!!)</t>
-  </si>
-  <si>
-    <t>30h</t>
-  </si>
-  <si>
-    <t>Test de mysql et mysql2 en vrai</t>
-  </si>
-  <si>
-    <t>Test de performance  mysql et mysql2 et PHP en vrai</t>
-  </si>
-  <si>
-    <t>Faire l'apprentissage de mongodb</t>
-  </si>
-  <si>
-    <t>Faire l'apprentissage de mongodb_x000D_
-Ajouter au systeme UOW le mongodb</t>
-  </si>
-  <si>
-    <t>20h</t>
-  </si>
-  <si>
     <t>Autre</t>
-  </si>
-  <si>
-    <t>環境更新</t>
-  </si>
-  <si>
-    <t>Voir comment creer un dual boot ubuntu sans clef usb._x000D_
-Si impossible acheter clef usb</t>
   </si>
   <si>
     <t>changer couleur en fonction de date_x000D_
@@ -380,68 +315,757 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Creer une page qui permet la modification du fichier config</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Faire un shema du projet</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>voir avec le sup</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>超高</t>
+    <t>テスト</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>開発</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Nom du projet</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Creer chat nodejs </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Faire recap modules important</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>15h</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>勉強</t>
+    <rPh sb="0" eb="2">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Bejewell v1 avec chiffre</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>resume archero recap de tous</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アイディア</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20h</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Creation de prefab chat dans unity</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>高</t>
     <rPh sb="0" eb="1">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
       <t>タカ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Faire en sorte de pouvoir check la connexion depuis la page generatrice du json</t>
-  </si>
-  <si>
-    <t>rendre propre la page (presentation)</t>
-  </si>
-  <si>
-    <t>faire en sorte d'afficher les configs actuels au demarrage de la page en 初期化</t>
-  </si>
-  <si>
-    <t>Trouver un moyen de proteger la page. Htaccess</t>
-  </si>
-  <si>
-    <t>低</t>
-    <rPh sb="0" eb="1">
-      <t>ヒク</t>
+    <t>Unity 3D</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Other project to be done someday</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ゲーム改修</t>
+    <rPh sb="3" eb="5">
+      <t>カイシュウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Creer un systeme qui permet d'afficher tracking et error Dans un excel
-Faire la technique du copype d'un fichier existant excel</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>テスト</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Faire le shema du generateur</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Rajouter Class d'extension</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>今</t>
-    <rPh sb="0" eb="1">
-      <t>イマ</t>
+    <t>Les boutons qui s'affichent a droite devraient etre un peu plus petit</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Changer simplement la taille de ces boutons</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">More Games =&gt; Meme avec un jeu C'est une bonne pub et ca fait plaisir </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Other project 1 </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>- Creation du lien entre le bouton et le jeu. Un click =&gt; va vers le site!
+- Creation de la page web qui sera afficher au lien</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Project 1 </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Reflechir a quel popup afficher au demarrage du jeu</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire la liste des choses qui apparaissent au moment du lancement du jeu pour pousser le joueur a acheter au max!
+Jusqu'a 4/5 popup
+Faire en sorte qu'une pub s'affiche au moment de la popup de demarrage !
+Example : 
+1 popup de bienvenue
+2 popup de presentation d'autres jeux similaire
+3 popup de promotion
+4 popup de daily bonus? </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Le bonus cache du 目標</t>
+    <rPh sb="18" eb="20">
+      <t>モクヒョウ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Ya plusieurs bonus : 
+1 bonus non cache : si vous faite ca vous obtenez ca 2/3 bonus
+2 Bonus cache : si vous faite toutes les quete =&gt; vous obtenez le bonus cache</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Niveau de difficulte a chaque niveau</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Le niveau de difficulte est choisi au demarrage d'un niveau!
+Bonus differents selon difficulte</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Changement d'ordre de planete</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Plus de pluton
+order a changer A reflechir
+mettre la nouvelle planete</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2 facons de choisir un niveau</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1 En particulier la terre : choisir niveau selon continent
+2 Quand on click sur la planete. La planete ne grossit pas. C'est seulement quand on a choisir le niveau que l'animation se lance et va vers la planete</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Quelques idees de bonus poru le joueur</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>nombre de points total accumuler a compter 100000 =&gt; bonus</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Truc nice du jeu d'eric</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>trouver comment faire pour creer des textes degrades avec text mesh pro.</t>
+  </si>
+  <si>
+    <t>Trouver des belles icons en degrade pour les menus du jeu dans l'asset stored</t>
+  </si>
+  <si>
+    <t>Trouver une bonne police pour les textes</t>
+  </si>
+  <si>
+    <t>Creer soi-meme un boutons pour voir si ca a la classe</t>
+  </si>
+  <si>
+    <t>Quand on en viendra a creer les boutons, Il faudra non pas mettre des boutons encercles, il faudra plutot mettre des boutons seulement icon avec ombre.</t>
+  </si>
+  <si>
+    <t>Creer un programme qui permet de modifier dans n'importe quelle couleur une image colorer en une image mono color.</t>
+  </si>
+  <si>
+    <t>Ajout de la coche ne plus montrer aujourd'hui</t>
+  </si>
+  <si>
+    <t>Ajout de la fonctionnalite "Bonus stored only 7 days"</t>
+  </si>
+  <si>
+    <t>Creation de promotion de 2semaines ou ce genre de truc. La pub doit contenir, brievement le contenu et mettre en avant le Bonus</t>
+  </si>
+  <si>
+    <t>Remettre en forme les boutons de sorte a ce que le shop soit obligatoirement tj au meme endroit &lt;=&gt; retravailler le menu</t>
+  </si>
+  <si>
+    <t>Creation du menu settings comme suit :</t>
+  </si>
+  <si>
+    <t>Ya 4 onglet : 
+Account / Options / Help / Extras
+Account definis les informations du player. Ajout de "photo"? Ou plutot de sign pour differencier le joueur?
+1 Access a son compte sur le site en light
+2 Partager le jeu sur facebook/Tweeter et autre
+3 Nom joueur jeu et ensemble de jeu.
+4 Terms of Service A ECRIRE ??? 
+5 le bouton more games
+Options
+On off button pour tout
+Animation/Popup Settings 等
+Sound/Music Settings
+Language settings
+Reset Setting Button (default Settings)
+Help 
+Contact</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Galaxy Breaker</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>30m</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2weeks</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Ne pas mettre les boutons de la balle/bar dans le menu principale?</t>
+  </si>
+  <si>
+    <t>Faire un clean du projet Reflechir au positionnement des differents boutons.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>美化</t>
+    <rPh sb="0" eb="2">
+      <t>ビカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rendre bo le jeu en utilisant les trucs nice du jeu d'eric</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>trouver/utiliser des bons asset pour que ca ait la classe</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1j</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1week</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1week </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1:3weeks
+2: 1j</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Reflexion plus abouti de la db pour gerrer les nouvelles fonctionnalites</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>player pref
+Example : Pas de connection -&gt; save resultat sur le smartphone de L'utilisateur avec un player pref
+Ensuite il suffit de verifier la connection du user pour sauvegarder en ligne le jeu</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>- apprendre a utiliser les players pref
+- Reflechir a quels genre de datas sont necessaire pour le player pref
+- Creer un fichier excel pour resumer les differentes datas : player pref/db等</t>
+    <rPh sb="187" eb="188">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>ND</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Separer </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2j</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Rajouter le Gif du perso principal</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Mettre en avant le 'partir a l'aventure'
+Et rajouter un bo fond avc un bon perso principal</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Pays</t>
+  </si>
+  <si>
+    <t>Max Score on Level</t>
+  </si>
+  <si>
+    <t>Max Score overall</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nbr games </t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>notification check</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>promoid</t>
+  </si>
+  <si>
+    <t>nom promo</t>
+  </si>
+  <si>
+    <t>item_list_Json</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>startdate</t>
+  </si>
+  <si>
+    <t>endate</t>
+  </si>
+  <si>
+    <t>nbr points bronze</t>
+  </si>
+  <si>
+    <t>nbr points silver</t>
+  </si>
+  <si>
+    <t>nbr points gold</t>
+  </si>
+  <si>
+    <t>nbr points god</t>
+  </si>
+  <si>
+    <t>itemid</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>need persistente save</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>table name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>item name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>player name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>need local save</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Nom jeu</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>avatar jeu</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>id jeu</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Pseudo</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Game_Master</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Promotion_master</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>PurchaseOrder</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>purchaseId</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>playerId</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>itemid</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>purchaseDate</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>purchaseType</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>purchaseStatus</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Quantity</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>discount (if promo)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>char1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DailyBonus_Master</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>dailyBonusid</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>nom promo</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>position_obtained_map_json</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>current Position</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Player_Exploit</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Creation tmp VIEW FOR THIS</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Options</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>stars number On level</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>list item</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>item_master</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rarity</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Mission Master</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>mission id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>mission description</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>is hide</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>startdate</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>endate</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EvenementMaster</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>evenementid</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>font</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Nbr jeu</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Cloud google</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>save platform</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">check for update </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>if update show</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">get update from distant cloud </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>loc/dist</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>if data show</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>else nothing should happened</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>way to do it</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>on first install, we need to load a bunch of data : base data used</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Add a popup : You need to connec to the wifi or 4g to check lastest promotions</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ingame</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>On Update change it</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">save first on local </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>and create a json to be saved to db</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>result from other tables</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>list level result</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>need internet connection</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>unique record</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>sound level</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>vfx level</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>time spent on the game ms</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>list bonus to get json</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>list Bonus to get json</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>not yet</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">player pref Cf options </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>shop</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -449,7 +1073,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,8 +1124,39 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,8 +1193,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -699,43 +1386,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -800,36 +1450,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -899,34 +1523,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -937,9 +1634,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -979,11 +1673,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1003,52 +1694,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1085,60 +1758,141 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="27" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="どちらでもない" xfId="3" builtinId="28"/>
+    <cellStyle name="メモ" xfId="4" builtinId="10"/>
+    <cellStyle name="悪い" xfId="2" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="80">
     <dxf>
       <fill>
         <patternFill>
@@ -1202,6 +1956,333 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1391,16 +2472,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCCCC"/>
@@ -1444,35 +2515,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7768,6 +8826,23 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57C9A93D-941B-4EDD-9CD6-75904B15FD8F}" name="テーブル1" displayName="テーブル1" ref="A1:H75" totalsRowShown="0">
+  <autoFilter ref="A1:H75" xr:uid="{203EB4B8-84D0-4F46-86A7-6DEED1C8963E}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{FE887483-5C2D-4C01-8670-D298056CB107}" name="table name"/>
+    <tableColumn id="2" xr3:uid="{450C3C41-4C58-4BAD-B4CF-885511A9E381}" name="unique record"/>
+    <tableColumn id="10" xr3:uid="{3D0448FC-377E-426F-A66B-C0A99882954A}" name="need internet connection" dataDxfId="20" dataCellStyle="悪い"/>
+    <tableColumn id="4" xr3:uid="{1F824B38-B6DB-4033-8363-7D0D77C583F5}" name="item name"/>
+    <tableColumn id="5" xr3:uid="{A4B99305-B61C-4DE1-B518-68862AAB927C}" name="type"/>
+    <tableColumn id="6" xr3:uid="{5F771DF7-B726-41A7-A997-92594648DDA1}" name="need local save"/>
+    <tableColumn id="7" xr3:uid="{D4CDB28C-9E3C-48DC-AC6C-1DE84B965AF2}" name="need persistente save"/>
+    <tableColumn id="9" xr3:uid="{DEE9265D-B433-4F0F-A706-62A98E2808D5}" name="save platform"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8062,10 +9137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8073,689 +9148,1156 @@
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="39.625" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="37.875" customWidth="1"/>
+    <col min="5" max="5" width="38.875" customWidth="1"/>
+    <col min="6" max="6" width="47.25" customWidth="1"/>
     <col min="7" max="7" width="7.75" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="6.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="20" customWidth="1"/>
     <col min="11" max="11" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="30">
+        <f>COUNTA(G$2:G3)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="9">
+        <v>43896</v>
+      </c>
+      <c r="I3" s="10" t="str">
+        <f t="shared" ref="I3:I6" ca="1" si="0">IF(H3-NOW()&lt;=0,"遅れ",ROUNDDOWN(H3+1-NOW(),0)&amp;"j")</f>
+        <v>遅れ</v>
+      </c>
+      <c r="J3" s="21">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="31">
+        <f>COUNTA(G$2:G4)</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="12">
+        <v>43894</v>
+      </c>
+      <c r="I4" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>遅れ</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="31">
+        <f>COUNTA(G$2:G5)</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="12">
+        <v>43982</v>
+      </c>
+      <c r="I5" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>73j</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="31">
+        <f>COUNTA(G$2:G6)</f>
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="B6" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="12">
+        <v>43893</v>
+      </c>
+      <c r="I6" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>遅れ</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="31">
+        <f>COUNTA(G$2:G7)</f>
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="B7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="12">
+        <v>43922</v>
+      </c>
+      <c r="I7" s="13" t="str">
+        <f t="shared" ref="I7:I12" ca="1" si="1">IF(H7-NOW()&lt;=0,"遅れ",ROUNDDOWN(H7+1-NOW(),0)&amp;"j")</f>
+        <v>13j</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="31">
+        <f>COUNTA(G$2:G8)</f>
         <v>6</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="B8" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="12">
+        <v>43922</v>
+      </c>
+      <c r="I8" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>13j</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8">
         <v>7</v>
       </c>
-      <c r="K1" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="7" t="s">
+    </row>
+    <row r="9" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="31">
+        <f>COUNTA(G$2:G9)</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="92" t="s">
+      <c r="C9" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="12">
+        <v>43896</v>
+      </c>
+      <c r="I9" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>遅れ</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="A10" s="31">
+        <f>COUNTA(G$2:G10)</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="12">
+        <v>43922</v>
+      </c>
+      <c r="I10" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>13j</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="31">
+        <f>COUNTA(G$2:G11)</f>
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
-    </row>
-    <row r="3" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="34">
-        <f>COUNTA(G$3:G3)</f>
+      <c r="B11" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="12">
+        <v>43896</v>
+      </c>
+      <c r="I11" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>遅れ</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="31">
+        <f>COUNTA(G$2:G12)</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="12">
+        <v>43922</v>
+      </c>
+      <c r="I12" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>13j</v>
+      </c>
+      <c r="J12" s="22">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="29">
+        <f>COUNTA(G$2:G13)</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="12">
+        <v>43927</v>
+      </c>
+      <c r="I13" s="16" t="str">
+        <f t="shared" ref="I13" ca="1" si="2">IF(H13-NOW()&lt;=0,"遅れ",ROUNDDOWN(H13+1-NOW(),0)&amp;"j")</f>
+        <v>18j</v>
+      </c>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+    </row>
+    <row r="14" spans="1:13" ht="113.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="29">
+        <f>COUNTA(G$2:G14)</f>
+        <v>12</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="12">
+        <v>43903</v>
+      </c>
+      <c r="I14" s="16" t="str">
+        <f t="shared" ref="I14:I35" ca="1" si="3">IF(H14-NOW()&lt;=0,"遅れ",ROUNDDOWN(H14+1-NOW(),0)&amp;"j")</f>
+        <v>遅れ</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="30">
+        <f>COUNTA(G$2:G16)</f>
+        <v>13</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="91"/>
+      <c r="G16" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="9">
+        <v>43982</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" ref="I16:I26" ca="1" si="4">IF(H16-NOW()&lt;=0,"遅れ",ROUNDDOWN(H16+1-NOW(),0)&amp;"j")</f>
+        <v>73j</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="31">
+        <f>COUNTA(G$2:G17)</f>
+        <v>14</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="12">
+        <v>43982</v>
+      </c>
+      <c r="I17" s="13" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>73j</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="31">
+        <f>COUNTA(G$2:G18)</f>
+        <v>15</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="12">
+        <v>43982</v>
+      </c>
+      <c r="I18" s="13" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>73j</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="31">
+        <f>COUNTA(G$2:G19)</f>
+        <v>16</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="90"/>
+      <c r="G19" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="12">
+        <v>43982</v>
+      </c>
+      <c r="I19" s="13" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>73j</v>
+      </c>
+      <c r="J19" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+      <c r="A20" s="31">
+        <f>COUNTA(G$2:G20)</f>
+        <v>17</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="90"/>
+      <c r="G20" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="12">
+        <v>43982</v>
+      </c>
+      <c r="I20" s="13" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>73j</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="31">
+        <f>COUNTA(G$2:G21)</f>
+        <v>18</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="90"/>
+      <c r="G21" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="12">
+        <v>43982</v>
+      </c>
+      <c r="I21" s="13" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>73j</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="31">
+        <f>COUNTA(G$2:G22)</f>
         <v>19</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="14">
-        <v>43551</v>
-      </c>
-      <c r="I3" s="15" t="str">
-        <f ca="1">IF(H3-NOW()&lt;=0,"遅れ",ROUNDDOWN(H3+1-NOW(),0)&amp;"j")</f>
-        <v>遅れ</v>
-      </c>
-      <c r="J3" s="24">
+      <c r="B22" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="90"/>
+      <c r="G22" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="12">
+        <v>43982</v>
+      </c>
+      <c r="I22" s="13" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>73j</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="31">
+        <f>COUNTA(G$2:G23)</f>
+        <v>20</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="90"/>
+      <c r="G23" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="12">
+        <v>43982</v>
+      </c>
+      <c r="I23" s="13" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>73j</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+      <c r="A24" s="31">
+        <f>COUNTA(G$2:G24)</f>
+        <v>21</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="90"/>
+      <c r="G24" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="12">
+        <v>43982</v>
+      </c>
+      <c r="I24" s="13" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>73j</v>
+      </c>
+      <c r="J24" s="22"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="31">
+        <f>COUNTA(G$2:G25)</f>
+        <v>22</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="90"/>
+      <c r="G25" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="12">
+        <v>43982</v>
+      </c>
+      <c r="I25" s="13" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>73j</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" ht="319.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="96">
+        <f>COUNTA(G$2:G26)</f>
+        <v>23</v>
+      </c>
+      <c r="B26" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="97"/>
+      <c r="D26" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="100">
+        <v>43982</v>
+      </c>
+      <c r="I26" s="101" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>73j</v>
+      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" s="102"/>
+    </row>
+    <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A27" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="31">
+        <f>COUNTA(G$2:G28)</f>
+        <v>24</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="13" t="e">
+        <f ca="1">IF(H28-NOW()&lt;=0,"遅れ",ROUNDDOWN(H28+1-NOW(),0)&amp;"j")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J28" s="22">
         <v>0</v>
       </c>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="34">
-        <f>COUNTA(G$3:G4)</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="14">
-        <v>43575</v>
-      </c>
-      <c r="I4" s="15" t="str">
-        <f ca="1">IF(H4-NOW()&lt;=0,"遅れ",ROUNDDOWN(H4+1-NOW(),0)&amp;"j")</f>
-        <v>1j</v>
-      </c>
-      <c r="J4" s="24">
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="31"/>
+      <c r="B29" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="13" t="e">
+        <f t="shared" ref="I29:I30" ca="1" si="5">IF(H29-NOW()&lt;=0,"遅れ",ROUNDDOWN(H29+1-NOW(),0)&amp;"j")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J29" s="22"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A30" s="31"/>
+      <c r="B30" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I30" s="13" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J30" s="22"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="31">
+        <f>COUNTA(G$2:G31)</f>
+        <v>27</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" s="13" t="e">
+        <f ca="1">IF(H31-NOW()&lt;=0,"遅れ",ROUNDDOWN(H31+1-NOW(),0)&amp;"j")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J31" s="22"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="31">
+        <f>COUNTA(G$2:G32)</f>
+        <v>28</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" s="13" t="e">
+        <f ca="1">IF(H32-NOW()&lt;=0,"遅れ",ROUNDDOWN(H32+1-NOW(),0)&amp;"j")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J32" s="22">
         <v>0</v>
       </c>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="34">
-        <f>COUNTA(G$3:G5)</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="14">
-        <v>43575</v>
-      </c>
-      <c r="I5" s="15" t="str">
-        <f ca="1">IF(H5-NOW()&lt;=0,"遅れ",ROUNDDOWN(H5+1-NOW(),0)&amp;"j")</f>
-        <v>1j</v>
-      </c>
-      <c r="J5" s="73">
-        <v>0.3</v>
-      </c>
-      <c r="K5" s="54"/>
-    </row>
-    <row r="6" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="34">
-        <f>COUNTA(G$3:G6)</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="14">
-        <v>43575</v>
-      </c>
-      <c r="I6" s="15" t="str">
-        <f t="shared" ref="I6:I12" ca="1" si="0">IF(H6-NOW()&lt;=0,"遅れ",ROUNDDOWN(H6+1-NOW(),0)&amp;"j")</f>
-        <v>1j</v>
-      </c>
-      <c r="J6" s="73">
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="31">
+        <f>COUNTA(G$2:G33)</f>
+        <v>29</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="13" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J33" s="22"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="31">
+        <f>COUNTA(G$2:G34)</f>
+        <v>30</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="13" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J34" s="22">
         <v>0</v>
       </c>
-      <c r="K6" s="54"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="34">
-        <f>COUNTA(G$3:G7)</f>
-        <v>5</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="14">
-        <v>43575</v>
-      </c>
-      <c r="I7" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>1j</v>
-      </c>
-      <c r="J7" s="73">
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="29">
+        <f>COUNTA(G$2:G35)</f>
+        <v>31</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" s="16" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J35" s="23">
         <v>0</v>
       </c>
-      <c r="K7" s="54"/>
-    </row>
-    <row r="8" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="34">
-        <f>COUNTA(G$3:G8)</f>
-        <v>6</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="14">
-        <v>43575</v>
-      </c>
-      <c r="I8" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>1j</v>
-      </c>
-      <c r="J8" s="73">
-        <v>0</v>
-      </c>
-      <c r="K8" s="54"/>
-    </row>
-    <row r="9" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="34">
-        <f>COUNTA(G$3:G9)</f>
-        <v>7</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="14">
-        <v>43575</v>
-      </c>
-      <c r="I9" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>1j</v>
-      </c>
-      <c r="J9" s="73">
-        <v>0</v>
-      </c>
-      <c r="K9" s="54"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="34">
-        <f>COUNTA(G$3:G10)</f>
-        <v>8</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="14">
-        <v>43575</v>
-      </c>
-      <c r="I10" s="15" t="str">
-        <f t="shared" ref="I10" ca="1" si="1">IF(H10-NOW()&lt;=0,"遅れ",ROUNDDOWN(H10+1-NOW(),0)&amp;"j")</f>
-        <v>1j</v>
-      </c>
-      <c r="J10" s="73">
+      <c r="K35" s="17"/>
+    </row>
+    <row r="162" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J162" s="20">
         <v>1</v>
       </c>
-      <c r="K10" s="54"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="34">
-        <f>COUNTA(G$3:G11)</f>
-        <v>9</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="14">
-        <v>43575</v>
-      </c>
-      <c r="I11" s="15" t="str">
-        <f t="shared" ref="I11" ca="1" si="2">IF(H11-NOW()&lt;=0,"遅れ",ROUNDDOWN(H11+1-NOW(),0)&amp;"j")</f>
-        <v>1j</v>
-      </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="54"/>
-      <c r="L11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="34">
-        <f>COUNTA(G$3:G12)</f>
-        <v>10</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="14">
-        <v>43575</v>
-      </c>
-      <c r="I12" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>1j</v>
-      </c>
-      <c r="J12" s="73">
-        <v>0</v>
-      </c>
-      <c r="K12" s="54"/>
-    </row>
-    <row r="13" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="33">
-        <f>COUNTA(G$3:G14)</f>
-        <v>11</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="14">
-        <v>43617</v>
-      </c>
-      <c r="I14" s="15" t="str">
-        <f ca="1">IF(H14-NOW()&lt;=0,"遅れ",ROUNDDOWN(H14+1-NOW(),0)&amp;"j")</f>
-        <v>43j</v>
-      </c>
-      <c r="J14" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="34">
-        <f>COUNTA(G$3:G15)</f>
-        <v>12</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="14">
-        <v>43617</v>
-      </c>
-      <c r="I15" s="15" t="str">
-        <f ca="1">IF(H15-NOW()&lt;=0,"遅れ",ROUNDDOWN(H15+1-NOW(),0)&amp;"j")</f>
-        <v>43j</v>
-      </c>
-      <c r="J15" s="24">
-        <v>0</v>
-      </c>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="34">
-        <f>COUNTA(G$3:G16)</f>
-        <v>13</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="14">
-        <v>43617</v>
-      </c>
-      <c r="I16" s="15" t="str">
-        <f ca="1">IF(H16-NOW()&lt;=0,"遅れ",ROUNDDOWN(H16+1-NOW(),0)&amp;"j")</f>
-        <v>43j</v>
-      </c>
-      <c r="J16" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="34">
-        <f>COUNTA(G$3:G17)</f>
-        <v>14</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="14">
-        <v>43617</v>
-      </c>
-      <c r="I17" s="15" t="str">
-        <f ca="1">IF(H17-NOW()&lt;=0,"遅れ",ROUNDDOWN(H17+1-NOW(),0)&amp;"j")</f>
-        <v>43j</v>
-      </c>
-      <c r="J17" s="24">
-        <v>0</v>
-      </c>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="32">
-        <f>COUNTA(G$3:G18)</f>
-        <v>15</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="14">
-        <v>43617</v>
-      </c>
-      <c r="I18" s="18" t="str">
-        <f ca="1">IF(H18-NOW()&lt;=0,"遅れ",ROUNDDOWN(H18+1-NOW(),0)&amp;"j")</f>
-        <v>43j</v>
-      </c>
-      <c r="J18" s="25">
-        <v>0</v>
-      </c>
-      <c r="K18" s="19"/>
-    </row>
-    <row r="19" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="33">
-        <f>COUNTA(G$3:G20)</f>
-        <v>16</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="10">
-        <v>43556</v>
-      </c>
-      <c r="I20" s="11" t="str">
-        <f t="shared" ref="I20:I21" ca="1" si="3">IF(H20-NOW()&lt;=0,"遅れ",ROUNDDOWN(H20+1-NOW(),0)&amp;"j")</f>
-        <v>遅れ</v>
-      </c>
-      <c r="J20" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="32">
-        <f>COUNTA(G$3:G21)</f>
-        <v>17</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="17">
-        <v>43556</v>
-      </c>
-      <c r="I21" s="18" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>遅れ</v>
-      </c>
-      <c r="J21" s="25">
-        <v>1</v>
-      </c>
-      <c r="K21" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:C35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
-  <conditionalFormatting sqref="C1:C4 C13:C1048576">
-    <cfRule type="expression" dxfId="43" priority="48">
+  <conditionalFormatting sqref="C1:C2 C28:C32 C16:C26 C36:C1048576">
+    <cfRule type="expression" dxfId="79" priority="243">
       <formula>$C1="中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="49">
+    <cfRule type="expression" dxfId="78" priority="244">
       <formula>$C1="低"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="50">
+    <cfRule type="expression" dxfId="77" priority="245">
       <formula>$C1="超高"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="51">
+    <cfRule type="expression" dxfId="76" priority="246">
       <formula>$C1="高"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="dataBar" priority="47">
+    <cfRule type="dataBar" priority="242">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -8768,27 +10310,103 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="39" priority="31">
-      <formula>$C5="中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="32">
-      <formula>$C5="低"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="33">
-      <formula>$C5="超高"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="34">
-      <formula>$C5="高"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I5 I13:I1048576">
-    <cfRule type="expression" dxfId="35" priority="30">
+  <conditionalFormatting sqref="I1:I2 I16:I26 I28:I32 I36:I1048576">
+    <cfRule type="expression" dxfId="75" priority="225">
       <formula>$I1="遅れ"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="dataBar" priority="62">
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="74" priority="186">
+      <formula>$I14="遅れ"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="expression" dxfId="73" priority="166">
+      <formula>$I34="遅れ"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="72" priority="167">
+      <formula>$C34="中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="168">
+      <formula>$C34="低"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="169">
+      <formula>$C34="超高"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="170">
+      <formula>$C34="高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="68" priority="161">
+      <formula>$I33="遅れ"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="67" priority="162">
+      <formula>$C33="中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="163">
+      <formula>$C33="低"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="164">
+      <formula>$C33="超高"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="165">
+      <formula>$C33="高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="expression" dxfId="63" priority="151">
+      <formula>$I35="遅れ"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="62" priority="152">
+      <formula>$C35="中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="153">
+      <formula>$C35="低"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="154">
+      <formula>$C35="超高"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="155">
+      <formula>$C35="高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="58" priority="147">
+      <formula>$C14="中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="148">
+      <formula>$C14="低"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="149">
+      <formula>$C14="超高"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="150">
+      <formula>$C14="高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="dataBar" priority="141">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4B83A518-1D07-4E10-982D-D79F6B8E6573}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:J1048576 J1 J3:J14">
+    <cfRule type="dataBar" priority="322">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -8801,61 +10419,174 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C9 C12">
-    <cfRule type="expression" dxfId="34" priority="25">
-      <formula>$C6="中"</formula>
+  <conditionalFormatting sqref="C4:C6">
+    <cfRule type="expression" dxfId="54" priority="70">
+      <formula>$C4="中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="26">
-      <formula>$C6="低"</formula>
+    <cfRule type="expression" dxfId="53" priority="71">
+      <formula>$C4="低"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="27">
-      <formula>$C6="超高"</formula>
+    <cfRule type="expression" dxfId="52" priority="72">
+      <formula>$C4="超高"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="28">
-      <formula>$C6="高"</formula>
+    <cfRule type="expression" dxfId="51" priority="73">
+      <formula>$C4="高"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I9 I12">
-    <cfRule type="expression" dxfId="30" priority="24">
-      <formula>$I6="遅れ"</formula>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="50" priority="75">
+      <formula>$C3="中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="76">
+      <formula>$C3="低"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="77">
+      <formula>$C3="超高"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="78">
+      <formula>$C3="高"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="29" priority="10">
-      <formula>$I10="遅れ"</formula>
+  <conditionalFormatting sqref="I3:I6">
+    <cfRule type="expression" dxfId="46" priority="74">
+      <formula>$I3="遅れ"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="28" priority="6">
-      <formula>$C10="中"</formula>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="45" priority="60">
+      <formula>$C27="中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="7">
-      <formula>$C10="低"</formula>
+    <cfRule type="expression" dxfId="44" priority="61">
+      <formula>$C27="低"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="8">
-      <formula>$C10="超高"</formula>
+    <cfRule type="expression" dxfId="43" priority="62">
+      <formula>$C27="超高"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="9">
-      <formula>$C10="高"</formula>
+    <cfRule type="expression" dxfId="42" priority="63">
+      <formula>$C27="高"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="24" priority="5">
-      <formula>$I11="遅れ"</formula>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="41" priority="59">
+      <formula>$I27="遅れ"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="23" priority="1">
-      <formula>$C11="中"</formula>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="dataBar" priority="58">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{94FB762D-F333-4EC7-93CC-53658FBE9EA8}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
-      <formula>$C11="低"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="40" priority="54">
+      <formula>$C15="中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
-      <formula>$C11="超高"</formula>
+    <cfRule type="expression" dxfId="39" priority="55">
+      <formula>$C15="低"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4">
-      <formula>$C11="高"</formula>
+    <cfRule type="expression" dxfId="38" priority="56">
+      <formula>$C15="超高"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="57">
+      <formula>$C15="高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="36" priority="53">
+      <formula>$I15="遅れ"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="dataBar" priority="52">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6B82253F-6B01-4653-91B8-F24EFB3639A8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C30">
+    <cfRule type="expression" dxfId="35" priority="28">
+      <formula>$C28="中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="29">
+      <formula>$C28="低"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="30">
+      <formula>$C28="超高"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="31">
+      <formula>$C28="高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:I30">
+    <cfRule type="expression" dxfId="31" priority="27">
+      <formula>$I28="遅れ"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:I12">
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>$I7="遅れ"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C12">
+    <cfRule type="expression" dxfId="29" priority="22">
+      <formula>$C7="中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="23">
+      <formula>$C7="低"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="24">
+      <formula>$C7="超高"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="25">
+      <formula>$C7="高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J26">
+    <cfRule type="dataBar" priority="353">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{798E00B1-3DA6-4D24-A444-D1E1035D1181}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="25" priority="5">
+      <formula>$I13="遅れ"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="24" priority="1">
+      <formula>$C13="中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="2">
+      <formula>$C13="低"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="3">
+      <formula>$C13="超高"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="4">
+      <formula>$C13="高"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8880,6 +10611,22 @@
           <xm:sqref>K1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4B83A518-1D07-4E10-982D-D79F6B8E6573}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="0"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA0BE628-526B-4F79-8224-696FA13660DA}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
@@ -8893,7 +10640,55 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J1048576</xm:sqref>
+          <xm:sqref>J28:J1048576 J1 J3:J14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{94FB762D-F333-4EC7-93CC-53658FBE9EA8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="0"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6B82253F-6B01-4653-91B8-F24EFB3639A8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="0"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{798E00B1-3DA6-4D24-A444-D1E1035D1181}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="0"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J16:J26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8902,94 +10697,1801 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B72C757-019F-46F5-BE90-A2213532D122}">
+  <dimension ref="A1:Q75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="41.125" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="22.625" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="H6" s="104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" s="104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" s="104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" s="104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="104" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" s="104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" t="s">
+        <v>225</v>
+      </c>
+      <c r="J14" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" t="s">
+        <v>225</v>
+      </c>
+      <c r="J15" t="s">
+        <v>234</v>
+      </c>
+      <c r="K15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="H16" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" t="s">
+        <v>225</v>
+      </c>
+      <c r="K17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="I19" t="s">
+        <v>225</v>
+      </c>
+      <c r="K19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="106" t="s">
+        <v>232</v>
+      </c>
+      <c r="J20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="H21" s="106" t="s">
+        <v>232</v>
+      </c>
+      <c r="J21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="106" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22" s="106" t="s">
+        <v>232</v>
+      </c>
+      <c r="J22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" s="106" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="H24" s="106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="106" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="106" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" s="106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="106" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="106" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" s="106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="106" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="106" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27" s="106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="108"/>
+      <c r="C28" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="108" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="108"/>
+      <c r="C29" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="108" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="H29" s="108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="108"/>
+      <c r="C30" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="H30" s="108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="108"/>
+      <c r="C31" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D31" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" s="108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="108"/>
+      <c r="C32" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="108" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="H32" s="108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="108"/>
+      <c r="C33" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="108" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="H33" s="108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="108"/>
+      <c r="C34" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" s="108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="108"/>
+      <c r="C35" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="H35" s="108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="108"/>
+      <c r="C36" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="H36" s="108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="J37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="J38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="F42" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104" t="s">
+        <v>248</v>
+      </c>
+      <c r="E43" s="104" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44" s="104" t="s">
+        <v>250</v>
+      </c>
+      <c r="F44" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G45" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" s="103" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="F46" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G46" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="H46" s="103" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="F47" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G47" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="H47" s="103" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="H48" s="103" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A49" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="103"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="F49" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="H49" s="103" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A50" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G50" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="H50" s="103" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A51" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="107"/>
+      <c r="C51" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="107" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G51" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="H51" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="J51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A52" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="107" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G52" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="H52" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A53" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="107"/>
+      <c r="C53" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="107" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G53" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="H53" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A54" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="107"/>
+      <c r="C54" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="H54" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A55" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" s="107"/>
+      <c r="C55" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" s="107" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G55" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="H55" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A56" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B56" s="107"/>
+      <c r="C56" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="F56" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="G56" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="H56" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A57" s="109" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="109"/>
+      <c r="C57" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" s="109" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="110"/>
+      <c r="G57" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="H57" s="109" t="s">
+        <v>255</v>
+      </c>
+      <c r="J57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A58" s="109" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="109"/>
+      <c r="C58" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="109" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="110"/>
+      <c r="G58" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="H58" s="109" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A59" s="109" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="110"/>
+      <c r="G59" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="H59" s="109" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A60" s="109" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" s="109" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" s="110"/>
+      <c r="G60" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="H60" s="109" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A61" s="109" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="109"/>
+      <c r="C61" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" s="109" t="s">
+        <v>253</v>
+      </c>
+      <c r="E61" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" s="110"/>
+      <c r="G61" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="H61" s="109" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A62" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="J62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A63" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="B63" s="103"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A64" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" s="103"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="F64" s="103"/>
+      <c r="G64" s="103"/>
+      <c r="H64" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" s="103"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" s="103"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" s="103"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" s="103"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F67" s="103"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" s="103"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="103" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" s="103"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="103"/>
+      <c r="C69" s="103"/>
+      <c r="D69" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" s="103"/>
+      <c r="G69" s="103"/>
+      <c r="H69" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="103"/>
+      <c r="C70" s="103"/>
+      <c r="D70" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="E70" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F70" s="103"/>
+      <c r="G70" s="103"/>
+      <c r="H70" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" s="103"/>
+      <c r="C71" s="103"/>
+      <c r="D71" s="103" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" s="103"/>
+      <c r="G71" s="103"/>
+      <c r="H71" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" s="103"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="103"/>
+      <c r="G72" s="103"/>
+      <c r="H72" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" s="103"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="103" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F73" s="103"/>
+      <c r="G73" s="103"/>
+      <c r="H73" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="103"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="103"/>
+      <c r="H75" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522BD598-37D1-4C74-8AD3-F566FA26111B}">
   <dimension ref="FE50:FK60"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="DG39" sqref="DG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="82" width="9" style="74"/>
-    <col min="83" max="85" width="9" style="74" customWidth="1"/>
-    <col min="86" max="16384" width="9" style="74"/>
+    <col min="1" max="82" width="9" style="64"/>
+    <col min="83" max="85" width="9" style="64" customWidth="1"/>
+    <col min="86" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
     <row r="50" spans="161:167" x14ac:dyDescent="0.4">
-      <c r="FE50" s="91"/>
-      <c r="FF50" s="91"/>
-      <c r="FG50" s="91"/>
-      <c r="FH50" s="91"/>
-      <c r="FI50" s="91"/>
-      <c r="FJ50" s="91"/>
-      <c r="FK50" s="91"/>
+      <c r="FE50" s="81"/>
+      <c r="FF50" s="81"/>
+      <c r="FG50" s="81"/>
+      <c r="FH50" s="81"/>
+      <c r="FI50" s="81"/>
+      <c r="FJ50" s="81"/>
+      <c r="FK50" s="81"/>
     </row>
     <row r="51" spans="161:167" x14ac:dyDescent="0.4">
-      <c r="FE51" s="91"/>
-      <c r="FF51" s="91"/>
-      <c r="FG51" s="91"/>
-      <c r="FH51" s="91"/>
-      <c r="FI51" s="91"/>
-      <c r="FJ51" s="91"/>
-      <c r="FK51" s="91"/>
+      <c r="FE51" s="81"/>
+      <c r="FF51" s="81"/>
+      <c r="FG51" s="81"/>
+      <c r="FH51" s="81"/>
+      <c r="FI51" s="81"/>
+      <c r="FJ51" s="81"/>
+      <c r="FK51" s="81"/>
     </row>
     <row r="52" spans="161:167" x14ac:dyDescent="0.4">
-      <c r="FE52" s="91"/>
-      <c r="FF52" s="91"/>
-      <c r="FG52" s="91"/>
-      <c r="FH52" s="91"/>
-      <c r="FI52" s="91"/>
-      <c r="FJ52" s="91"/>
-      <c r="FK52" s="91"/>
+      <c r="FE52" s="81"/>
+      <c r="FF52" s="81"/>
+      <c r="FG52" s="81"/>
+      <c r="FH52" s="81"/>
+      <c r="FI52" s="81"/>
+      <c r="FJ52" s="81"/>
+      <c r="FK52" s="81"/>
     </row>
     <row r="53" spans="161:167" x14ac:dyDescent="0.4">
-      <c r="FE53" s="91"/>
-      <c r="FF53" s="91"/>
-      <c r="FG53" s="91"/>
-      <c r="FH53" s="91"/>
-      <c r="FI53" s="91"/>
-      <c r="FJ53" s="91"/>
-      <c r="FK53" s="91"/>
+      <c r="FE53" s="81"/>
+      <c r="FF53" s="81"/>
+      <c r="FG53" s="81"/>
+      <c r="FH53" s="81"/>
+      <c r="FI53" s="81"/>
+      <c r="FJ53" s="81"/>
+      <c r="FK53" s="81"/>
     </row>
     <row r="54" spans="161:167" x14ac:dyDescent="0.4">
-      <c r="FE54" s="91"/>
-      <c r="FF54" s="91"/>
-      <c r="FG54" s="91"/>
-      <c r="FH54" s="91"/>
-      <c r="FI54" s="91"/>
-      <c r="FJ54" s="91"/>
-      <c r="FK54" s="91"/>
+      <c r="FE54" s="81"/>
+      <c r="FF54" s="81"/>
+      <c r="FG54" s="81"/>
+      <c r="FH54" s="81"/>
+      <c r="FI54" s="81"/>
+      <c r="FJ54" s="81"/>
+      <c r="FK54" s="81"/>
     </row>
     <row r="55" spans="161:167" x14ac:dyDescent="0.4">
-      <c r="FE55" s="91"/>
-      <c r="FF55" s="91"/>
-      <c r="FG55" s="91"/>
-      <c r="FH55" s="91"/>
-      <c r="FI55" s="91"/>
-      <c r="FJ55" s="91"/>
-      <c r="FK55" s="91"/>
+      <c r="FE55" s="81"/>
+      <c r="FF55" s="81"/>
+      <c r="FG55" s="81"/>
+      <c r="FH55" s="81"/>
+      <c r="FI55" s="81"/>
+      <c r="FJ55" s="81"/>
+      <c r="FK55" s="81"/>
     </row>
     <row r="56" spans="161:167" x14ac:dyDescent="0.4">
-      <c r="FE56" s="91"/>
-      <c r="FF56" s="91"/>
-      <c r="FG56" s="91"/>
-      <c r="FH56" s="91"/>
-      <c r="FI56" s="91"/>
-      <c r="FJ56" s="91"/>
-      <c r="FK56" s="91"/>
+      <c r="FE56" s="81"/>
+      <c r="FF56" s="81"/>
+      <c r="FG56" s="81"/>
+      <c r="FH56" s="81"/>
+      <c r="FI56" s="81"/>
+      <c r="FJ56" s="81"/>
+      <c r="FK56" s="81"/>
     </row>
     <row r="57" spans="161:167" x14ac:dyDescent="0.4">
-      <c r="FG57" s="91"/>
+      <c r="FG57" s="81"/>
     </row>
     <row r="58" spans="161:167" x14ac:dyDescent="0.4">
-      <c r="FG58" s="91"/>
+      <c r="FG58" s="81"/>
     </row>
     <row r="59" spans="161:167" x14ac:dyDescent="0.4">
-      <c r="FG59" s="91"/>
+      <c r="FG59" s="81"/>
     </row>
     <row r="60" spans="161:167" x14ac:dyDescent="0.4">
-      <c r="FG60" s="91"/>
+      <c r="FG60" s="81"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -8999,11 +12501,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -9023,800 +12525,800 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="52">
+      <c r="A3" s="44">
         <f>COUNTA(G$3:G3)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>96</v>
+      <c r="B3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="60">
+      <c r="A4" s="51">
         <f>COUNTA(G$3:G4)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>96</v>
+      <c r="B4" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="44.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="60">
+      <c r="A5" s="51">
         <f>COUNTA(G$3:G5)</f>
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>96</v>
+      <c r="C5" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="60">
+      <c r="A6" s="51">
         <f>COUNTA(G$3:G6)</f>
         <v>4</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="62" t="s">
+      <c r="C6" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>96</v>
+      <c r="H6" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="60">
+      <c r="A7" s="51">
         <f>COUNTA(G$3:G7)</f>
         <v>5</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="56" t="s">
-        <v>96</v>
+      <c r="B7" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="60">
+      <c r="A8" s="51">
         <f>COUNTA(G$3:G8)</f>
         <v>6</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="56" t="s">
-        <v>96</v>
+      <c r="C8" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="60">
+      <c r="A9" s="51">
         <f>COUNTA(G$3:G9)</f>
         <v>7</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="56" t="s">
-        <v>96</v>
+      <c r="C9" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="60">
+      <c r="A10" s="51">
         <f>COUNTA(G$3:G10)</f>
         <v>8</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>96</v>
+      <c r="C10" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.4">
-      <c r="A11" s="60">
+      <c r="A11" s="51">
         <f>COUNTA(G$3:G11)</f>
         <v>9</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="56" t="s">
-        <v>96</v>
+      <c r="E11" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="60">
+      <c r="A12" s="51">
         <f>COUNTA(G$3:G12)</f>
         <v>10</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>96</v>
+      <c r="C12" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="60">
+      <c r="A13" s="51">
         <f>COUNTA(G$3:G13)</f>
         <v>11</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="56" t="s">
-        <v>96</v>
+      <c r="C13" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="60">
+      <c r="A14" s="51">
         <f>COUNTA(G$3:G14)</f>
         <v>12</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="56" t="s">
-        <v>96</v>
+      <c r="E14" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="60">
+      <c r="A15" s="51">
         <f>COUNTA(G$3:G15)</f>
         <v>13</v>
       </c>
-      <c r="B15" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="56" t="s">
-        <v>96</v>
+      <c r="B15" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="60">
+      <c r="A16" s="51">
         <f>COUNTA(G$3:G16)</f>
         <v>14</v>
       </c>
-      <c r="B16" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="56" t="s">
-        <v>96</v>
+      <c r="B16" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="60">
+      <c r="A17" s="51">
         <f>COUNTA(G$3:G17)</f>
         <v>15</v>
       </c>
-      <c r="B17" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>96</v>
+      <c r="B17" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="75">
+      <c r="A18" s="65">
         <f>COUNTA(G$3:G18)</f>
         <v>16</v>
       </c>
-      <c r="B18" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="J18" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="82" t="s">
-        <v>96</v>
+      <c r="B18" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="72" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="156" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="60">
+      <c r="A19" s="51">
         <f>COUNTA(G$3:G19)</f>
         <v>17</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="66" t="s">
+      <c r="C19" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="56" t="s">
-        <v>96</v>
+      <c r="G19" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="68">
+      <c r="A20" s="59">
         <f>COUNTA(G$3:G20)</f>
         <v>18</v>
       </c>
-      <c r="B20" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="89" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="57" t="s">
-        <v>96</v>
+      <c r="B20" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97"/>
+      <c r="A24" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="113"/>
     </row>
     <row r="25" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="51">
+      <c r="A25" s="43">
         <f>COUNTA(G$3:G25)</f>
         <v>19</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="49">
+      <c r="B25" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="41">
         <v>43539</v>
       </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="48"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="40"/>
     </row>
     <row r="28" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="29" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97"/>
+      <c r="A29" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="113"/>
     </row>
     <row r="30" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="51">
+      <c r="A30" s="43">
         <f>COUNTA(G$3:G30)</f>
         <v>20</v>
       </c>
-      <c r="B30" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="49">
+      <c r="B30" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="41">
         <v>43549</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" s="48"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="32">
+      <c r="A31" s="29">
         <f>COUNTA(G$3:G31)</f>
         <v>21</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="17">
+      <c r="B31" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="15">
         <v>43556</v>
       </c>
-      <c r="I31" s="18" t="str">
+      <c r="I31" s="16" t="str">
         <f t="shared" ref="I31" ca="1" si="0">IF(H31-NOW()&lt;=0,"遅れ",ROUNDDOWN(H31+1-NOW(),0)&amp;"j")</f>
         <v>遅れ</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="23">
         <v>1</v>
       </c>
-      <c r="K31" s="19"/>
+      <c r="K31" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
